--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -54,8 +54,448 @@
   </si>
   <si>
     <t>PRJ301
+SE1613
+D217</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1651
+R321</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1635
+R403</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1638
+R405</t>
+  </si>
+  <si>
+    <t>OSG202
+AI1606
+R412</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1704
+R220</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1703
+R220</t>
+  </si>
+  <si>
+    <t>PRF192
+IOT1701
+R303</t>
+  </si>
+  <si>
+    <t>PRF192
+IS1701
+R302</t>
+  </si>
+  <si>
+    <t>PRF192
+IOT1702
+R301</t>
+  </si>
+  <si>
+    <t>PRF192
+PRF192_ADD03
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1617
+D214</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1716
+R216</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1610
+D217</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1642
+R318</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1623
+D206</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1514-NET
+D319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1641
+R319</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1726
+R216</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1632
+D207</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1515-NET
+D319</t>
+  </si>
+  <si>
+    <t>DBI202
+IA1603
+D212</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1644
+R202</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1645
+R320</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1643
+R404</t>
+  </si>
+  <si>
+    <t>PRO192
+IA1604
+R413</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1717
+R206</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1649
+R202</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1640
+R321</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1639
+R404</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1702
+R212</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1629
+D205</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1411
+D417</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1512-NET
+D316</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1621
+D225</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1710
+R204</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1517-NET
+D318</t>
+  </si>
+  <si>
+    <t>PRF192
+IS1702
+R301</t>
+  </si>
+  <si>
+    <t>PRU211M
+SE1501-NET
+D328</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1707
+R206</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1714
+R207</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1720
+R208</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1624
+D207</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1415
+D412</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1703
+R219</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1627
+R308</t>
+  </si>
+  <si>
+    <t>CSD301
+AI1504
+D323</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1618
+D219</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1703
+R210</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1646
+R318</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1636
+R402</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1723
+R213</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1727
+R214</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1628
+D204</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1632
+D207</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1704
+R219</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1701
+R221</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1603
+D224</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1636
+R402</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1626
+D206</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1606
+D216</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1607
+D224</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1614
+D225</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1615
+D226</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1644
+R202</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1641
+R319</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1724
+R213</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1417
+D411</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1516-NET
+D318</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1602
+D215</t>
+  </si>
+  <si>
+    <t>PRJ301
 SE1622
 D215</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1713
+R205</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1709
+R207</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1721
+R209</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1650
+R319</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1651
+R321</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1634
+R402</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1609
+D214</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1646
+R318</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1648
+R405</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1416
+D411</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1412
+D413</t>
+  </si>
+  <si>
+    <t>PRN221
+SE1501-NET
+D328</t>
+  </si>
+  <si>
+    <t>PRN211
+PRN211_ADD02
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1612
+D219</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1705
+R203</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1637
+R403</t>
+  </si>
+  <si>
+    <t>PRN211
+SE1513-NET
+D316</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1608
+D222</t>
   </si>
   <si>
     <t>PRJ301
@@ -64,8 +504,188 @@
   </si>
   <si>
     <t>PRO192
-SE1646
+SE1647
+R320</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1625
+D203</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1626
+D206</t>
+  </si>
+  <si>
+    <t>DBW301
+IS1414
+D417</t>
+  </si>
+  <si>
+    <t>PRO192
+AI1607
+R412</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1616
+D218</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1649
+R202</t>
+  </si>
+  <si>
+    <t>PRO192
+IS1603
+R413</t>
+  </si>
+  <si>
+    <t>CSD201
+IS1602
+D213</t>
+  </si>
+  <si>
+    <t>PRJ301
+PRJ301_ADD01
+RoomADD</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1604
+D223</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1630
+D204</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1631
+D205</t>
+  </si>
+  <si>
+    <t>OSG202
+AI1607
+R412</t>
+  </si>
+  <si>
+    <t>CSD201
+AI1605
+D211</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1706
+R203</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1729
+R211</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1634
+R402</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1701
+R211</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1701
+R218</t>
+  </si>
+  <si>
+    <t>PFP191
+AI1702
+R218</t>
+  </si>
+  <si>
+    <t>DBI202
+AI1604
+R315</t>
+  </si>
+  <si>
+    <t>OSG202
+IS1603
+R413</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1712
+R208</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1645
+R320</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1637
+R403</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1648
+R405</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1715
+R205</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1640
+R321</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1722
+R212</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1704
+R214</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1718
+R217</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1630
+D204</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1642
 R318</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1647
+R320</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1639
+R404</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1625
+D203</t>
   </si>
   <si>
     <t>CSD201
@@ -74,13 +694,83 @@
   </si>
   <si>
     <t>CSD201
-SE1630
+SE1631
+D205</t>
+  </si>
+  <si>
+    <t>CSD201
+SE1624
+D207</t>
+  </si>
+  <si>
+    <t>JFE301
+JS1402
+D413</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1650
+R319</t>
+  </si>
+  <si>
+    <t>OSG202
+SE1638
+R405</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1633
+D203</t>
+  </si>
+  <si>
+    <t>DBI202
+SE1628
 D204</t>
   </si>
   <si>
     <t>CSD201
-SE1626
+SE1623
 D206</t>
+  </si>
+  <si>
+    <t>CSD201
+AI1604
+R315</t>
+  </si>
+  <si>
+    <t>OSG202
+IA1604
+R413</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1719
+R209</t>
+  </si>
+  <si>
+    <t>PRO192
+SE1643
+R404</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1708
+R215</t>
+  </si>
+  <si>
+    <t>PRO192
+AI1606
+R412</t>
+  </si>
+  <si>
+    <t>PRF192
+IA1702
+R221</t>
+  </si>
+  <si>
+    <t>DBI202
+IS1602
+D213</t>
   </si>
   <si>
     <t>PRJ301
@@ -88,134 +778,34 @@
 D216</t>
   </si>
   <si>
-    <t>PRF192
-SE1710
+    <t>PRJ301
+SE1620
+D218</t>
+  </si>
+  <si>
+    <t>PRJ301
+SE1605
+D222</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1711
 R204</t>
   </si>
   <si>
-    <t>PRO192
-SE1649
-R202</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1650
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1636
-R402</t>
-  </si>
-  <si>
-    <t>PRF192
-IS1702
-R301</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1616
-D218</t>
+    <t>PRF192
+SE1728
+R210</t>
+  </si>
+  <si>
+    <t>PRF192
+SE1725
+R215</t>
   </si>
   <si>
     <t>DBI202
-SE1625
-D203</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1417
-D411</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1415
-D412</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1515-NET
-D319</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1636
-R402</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1630
-D204</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1512-NET
-D316</t>
-  </si>
-  <si>
-    <t>OSG202
-AI1607
-R412</t>
-  </si>
-  <si>
-    <t>OSG202
-AI1606
-R412</t>
-  </si>
-  <si>
-    <t>PRO192
-AI1606
-R412</t>
-  </si>
-  <si>
-    <t>OSG202
-IA1604
-R413</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1646
-R318</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1635
-R403</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1414
-D417</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1416
-D411</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1627
-R308</t>
-  </si>
-  <si>
-    <t>PRN221
-SE1501-NET
-D328</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1644
-R202</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1650
-R319</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1645
-R320</t>
+SE1629
+D205</t>
   </si>
   <si>
     <t>DBW301
@@ -223,599 +813,9 @@
 D412</t>
   </si>
   <si>
-    <t>PRN211
-SE1514-NET
-D319</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1701
-R218</t>
-  </si>
-  <si>
-    <t>CSD301
-AI1504
-D323</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1612
-D219</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1607
-D224</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1603
-D224</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1712
-R208</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1634
-R402</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1701
-R211</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1704
-R220</t>
-  </si>
-  <si>
-    <t>PRF192
-IOT1701
-R303</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1618
-D219</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1707
-R206</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1642
-R318</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1640
-R321</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1701
-R221</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1706
-R203</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1709
-R207</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1724
-R213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1718
-R217</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1703
-R219</t>
-  </si>
-  <si>
-    <t>PRF192
-IS1701
-R302</t>
-  </si>
-  <si>
-    <t>OSG202
-IS1603
-R413</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1605
-D222</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1641
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1640
-R321</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1722
-R212</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1726
-R216</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1629
-D205</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1637
-R403</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1623
-D206</t>
-  </si>
-  <si>
-    <t>CSD201
-AI1604
-R315</t>
-  </si>
-  <si>
-    <t>CSD201
-AI1605
-D211</t>
-  </si>
-  <si>
-    <t>JFE301
-JS1402
-D413</t>
-  </si>
-  <si>
-    <t>CSD201
-IS1602
-D213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1717
-R206</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1721
-R209</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1703
-R210</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1647
-R320</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1708
-R215</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1624
-D207</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1621
-D225</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1615
-D226</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1713
-R205</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1644
-R202</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1647
-R320</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1702
-R212</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1702
-R218</t>
-  </si>
-  <si>
-    <t>DBI202
-IS1602
-D213</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1641
-R319</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1639
-R404</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1631
-D205</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1632
-D207</t>
-  </si>
-  <si>
     <t>DBI202
 AI1605
 D211</t>
-  </si>
-  <si>
-    <t>DBI202
-IA1603
-D212</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1606
-D216</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1728
-R210</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1623
-D206</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1626
-D206</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1702
-R221</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1602
-D215</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1642
-R318</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1625
-D203</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1624
-D207</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1412
-D413</t>
-  </si>
-  <si>
-    <t>PFP191
-AI1703
-R220</t>
-  </si>
-  <si>
-    <t>PRO192
-IS1603
-R413</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1610
-D217</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1639
-R404</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1643
-R404</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1633
-D203</t>
-  </si>
-  <si>
-    <t>DBW301
-IS1411
-D417</t>
-  </si>
-  <si>
-    <t>PRU211M
-SE1501-NET
-D328</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1620
-D218</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1629
-D205</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1632
-D207</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1516-NET
-D318</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1517-NET
-D318</t>
-  </si>
-  <si>
-    <t>DBI202
-AI1604
-R315</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1651
-R321</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1643
-R404</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1704
-R214</t>
-  </si>
-  <si>
-    <t>PRF192
-IA1704
-R219</t>
-  </si>
-  <si>
-    <t>PRO192
-IA1604
-R413</t>
-  </si>
-  <si>
-    <t>PRF192
-PRF192_ADD03
-RoomADD</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1705
-R203</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1711
-R204</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1714
-R207</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1729
-R211</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1649
-R202</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1634
-R402</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1645
-R320</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1648
-R405</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1723
-R213</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1725
-R215</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1716
-R216</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1628
-D204</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1613
-D217</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1604
-D223</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1637
-R403</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1638
-R405</t>
-  </si>
-  <si>
-    <t>CSD201
-SE1628
-D204</t>
-  </si>
-  <si>
-    <t>PRN211
-SE1513-NET
-D316</t>
-  </si>
-  <si>
-    <t>PRN211
-PRN211_ADD02
-RoomADD</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1617
-D214</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1651
-R321</t>
-  </si>
-  <si>
-    <t>DBI202
-SE1631
-D205</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1609
-D214</t>
-  </si>
-  <si>
-    <t>PRO192
-SE1638
-R405</t>
-  </si>
-  <si>
-    <t>OSG202
-SE1648
-R405</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1727
-R214</t>
-  </si>
-  <si>
-    <t>PRO192
-AI1607
-R412</t>
-  </si>
-  <si>
-    <t>PRF192
-IOT1702
-R301</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1608
-D222</t>
-  </si>
-  <si>
-    <t>PRJ301
-SE1614
-D225</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1715
-R205</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1720
-R208</t>
-  </si>
-  <si>
-    <t>PRF192
-SE1719
-R209</t>
-  </si>
-  <si>
-    <t>PRJ301
-PRJ301_ADD01
-RoomADD</t>
   </si>
 </sst>
 </file>
@@ -888,36 +888,21 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -925,13 +910,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -939,13 +930,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -953,18 +944,36 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1001,20 +1010,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1022,19 +1022,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1042,32 +1042,50 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1075,10 +1093,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1116,83 +1134,56 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
+      <c r="C3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1230,30 +1221,21 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1261,19 +1243,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1281,32 +1263,50 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="E6" t="s">
-        <v>77</v>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1344,19 +1344,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1364,19 +1358,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1384,19 +1375,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1404,41 +1395,41 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1476,19 +1467,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
       <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1496,16 +1487,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1513,46 +1504,46 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>92</v>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>90</v>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1589,33 +1580,33 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -1627,37 +1618,10 @@
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1694,53 +1658,47 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>104</v>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -1748,19 +1706,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -1768,19 +1723,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1817,40 +1772,13 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
       <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -1858,43 +1786,52 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1932,19 +1869,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -1952,58 +1883,46 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2046,13 +1965,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2060,13 +1985,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2079,19 +2007,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2099,10 +2027,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2110,19 +2035,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2160,83 +2079,47 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2273,14 +2156,11 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2288,47 +2168,32 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
       <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2336,10 +2201,10 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2347,10 +2212,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2388,27 +2253,27 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>130</v>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2416,55 +2281,46 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" t="s">
-        <v>133</v>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2502,78 +2358,63 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
       <c r="C3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2581,13 +2422,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2624,13 +2471,40 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2638,10 +2512,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2649,10 +2523,10 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2660,21 +2534,21 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2712,19 +2586,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -2732,19 +2600,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -2752,10 +2617,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -2763,32 +2628,32 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
       <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2825,53 +2690,53 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
       <c r="C2" t="s">
         <v>155</v>
       </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
       <c r="E2" t="s">
         <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
       <c r="C3" t="s">
         <v>155</v>
       </c>
-      <c r="E3" t="s">
-        <v>157</v>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
       <c r="C5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -2879,16 +2744,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
         <v>156</v>
       </c>
-      <c r="C6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>156</v>
-      </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -2896,13 +2764,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2939,75 +2813,66 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3045,81 +2910,45 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
@@ -3127,10 +2956,10 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3167,84 +2996,48 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3287,16 +3080,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3304,10 +3097,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3315,59 +3108,32 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3404,11 +3170,20 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
@@ -3416,10 +3191,10 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3427,19 +3202,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3447,59 +3222,32 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
       <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3537,43 +3285,55 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3581,30 +3341,18 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3641,31 +3389,31 @@
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="40.0" customHeight="true">
@@ -3673,10 +3421,10 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="40.0" customHeight="true">
@@ -3684,19 +3432,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="40.0" customHeight="true">
@@ -3704,30 +3452,30 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="40.0" customHeight="true">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
